--- a/biology/Botanique/André_Guillaumin/André_Guillaumin.xlsx
+++ b/biology/Botanique/André_Guillaumin/André_Guillaumin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Guillaumin</t>
+          <t>André_Guillaumin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 André Joseph Louis Edmond Armand Guillaumin est un botaniste français né le 21 juin 1885 à Bois-Méan, commune d'Arrou (Eure-et-Loir), et mort le 29 mai 1974 à Athis-Mons (Essonne). 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Guillaumin</t>
+          <t>André_Guillaumin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,17 +528,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Né le 21 juin 1885 à Bois-Méan, commune d'Arrou (Eure-et-Loir)[1],[2], il est le fils de Théophile Armand Guillaumin, âgé de 29 ans, propriétaire, né à  Saint-Maur-sur-le-Loir, demeurant à Bois-Méan et de Marie Amélie Busson, son épouse, âgée de 27 ans, née à Paris, 1er arrondissement[2].
-Il épouse le 26 juillet 1910 à la marie du 7e arrondissement de Paris, Marie Thérèse Ernestine Manigant[2]. Ils eurent plusieurs enfants[3].
-Carrière
-Après des études secondaires au collège des jésuites de la rue de Vaugirard[3] puis l’obtention d'une licence en sciences naturelles en 1906[3], André Guillaumin entre en  1909 au Muséum national d'histoire naturelle en qualité de préparateur[4].
-En 1910, il est reçu docteur en sciences biologiques[3] et devient en 1920 assistant de la chaire de Botanique, Organographie et Physiologie végétale, puis est transféré, la même année, dans la chaire de Culture[3]. Il dirige cette dernière en 1932 après la mort de Désiré Georges Jean Marie Bois (1856-1946)[4]. Il est assesseur du directeur du Muséum de 1947 à 1950[3]. Il prend sa retraite en 1956[3].
-Au Muséum national d'histoire naturelle, il est à l’origine  d'un jardin d’hiver, d'un jardin alpin, d'un jardin désertique et d'un jardin officinal, d’une serre des plantes utiles, d’un parc écologique[3]. Il participe à la reconstitution de l’école de botanique et collabore au “ Jardin de Jussieu ” au domaine de Chèvreloup[3].
-Il meurt à Athis-Mons le 29 mai 1974[2].
-Services militaires
-Au déclenchement de la Première Guerre mondiale, André Guillaumin est mobilisé en 1914 comme sous-lieutenant d'infanterie et devient capitaine en 1917 au 102e régiment d'infanterie. Il fut blessé deux fois et quatre fois cité[4].
-En 1939, lors de la Seconde Guerre mondiale, il est mobilisé comme chef de bataillon et rejoint rejoint le 102e régiment d'infanterie alors recomposé. Il devient major de la garnison de Mézières (Ardennes) et subit deux mois de captivité. Il est démobilisé le 23 août 1940[4].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 21 juin 1885 à Bois-Méan, commune d'Arrou (Eure-et-Loir) il est le fils de Théophile Armand Guillaumin, âgé de 29 ans, propriétaire, né à  Saint-Maur-sur-le-Loir, demeurant à Bois-Méan et de Marie Amélie Busson, son épouse, âgée de 27 ans, née à Paris, 1er arrondissement.
+Il épouse le 26 juillet 1910 à la marie du 7e arrondissement de Paris, Marie Thérèse Ernestine Manigant. Ils eurent plusieurs enfants.
 </t>
         </is>
       </c>
@@ -537,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Guillaumin</t>
+          <t>André_Guillaumin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,10 +561,90 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études secondaires au collège des jésuites de la rue de Vaugirard puis l’obtention d'une licence en sciences naturelles en 1906, André Guillaumin entre en  1909 au Muséum national d'histoire naturelle en qualité de préparateur.
+En 1910, il est reçu docteur en sciences biologiques et devient en 1920 assistant de la chaire de Botanique, Organographie et Physiologie végétale, puis est transféré, la même année, dans la chaire de Culture. Il dirige cette dernière en 1932 après la mort de Désiré Georges Jean Marie Bois (1856-1946). Il est assesseur du directeur du Muséum de 1947 à 1950. Il prend sa retraite en 1956.
+Au Muséum national d'histoire naturelle, il est à l’origine  d'un jardin d’hiver, d'un jardin alpin, d'un jardin désertique et d'un jardin officinal, d’une serre des plantes utiles, d’un parc écologique. Il participe à la reconstitution de l’école de botanique et collabore au “ Jardin de Jussieu ” au domaine de Chèvreloup.
+Il meurt à Athis-Mons le 29 mai 1974.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>André_Guillaumin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Guillaumin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Services militaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au déclenchement de la Première Guerre mondiale, André Guillaumin est mobilisé en 1914 comme sous-lieutenant d'infanterie et devient capitaine en 1917 au 102e régiment d'infanterie. Il fut blessé deux fois et quatre fois cité.
+En 1939, lors de la Seconde Guerre mondiale, il est mobilisé comme chef de bataillon et rejoint rejoint le 102e régiment d'infanterie alors recomposé. Il devient major de la garnison de Mézières (Ardennes) et subit deux mois de captivité. Il est démobilisé le 23 août 1940.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Guillaumin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Guillaumin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Travaux et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">André Guillaumin fait notamment paraître plusieurs ouvrages consacrées aux Oxalidaceae, Rutaceae, Burseraceae, Hamamelidaceae, Haloragaceae, Callitrichaceae, Rhizophoraceae, Melistomaceae et Crypteroniaceae :
 Flore générale de l'Indo-Chine (1910, 1911, 1912, 1920, 1921),
@@ -566,76 +655,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Andr%C3%A9_Guillaumin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Guillaumin</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Divers</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Guillaumin est élu président de la Société botanique de France en 1935.
-Il fut propriétaire jusqu'à sa mort en 1974 du collège royal et militaire de Thiron-Gardais, dont son père avait hérité en 1906 de la famille Gallot et qui sera vendu en 2005 par ses héritiers au conseil départemental d'Eure-et-Loir, puis acheté en 2012 par l'animateur Stéphane Bern[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Andr%C3%A9_Guillaumin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Guillaumin</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Décorations</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Guillaumin fut chevalier (1920)[6] puis officier de la Légion d'honneur (1937)[6], officier officier des Palmes académiques, officier du Mérite agricole, officier d'Instruction publique et plusieurs fois primé par l'Académie des Sciences[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Guillaumin</t>
+          <t>André_Guillaumin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,12 +676,81 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Guillaumin est élu président de la Société botanique de France en 1935.
+Il fut propriétaire jusqu'à sa mort en 1974 du collège royal et militaire de Thiron-Gardais, dont son père avait hérité en 1906 de la famille Gallot et qui sera vendu en 2005 par ses héritiers au conseil départemental d'Eure-et-Loir, puis acheté en 2012 par l'animateur Stéphane Bern.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>André_Guillaumin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Guillaumin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Guillaumin fut chevalier (1920) puis officier de la Légion d'honneur (1937), officier officier des Palmes académiques, officier du Mérite agricole, officier d'Instruction publique et plusieurs fois primé par l'Académie des Sciences.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>André_Guillaumin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Guillaumin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, fut inauguré en son honneur le parc André-Guillaumin à Arrou, en présence de son fils Jacques Guillaumin[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, fut inauguré en son honneur le parc André-Guillaumin à Arrou, en présence de son fils Jacques Guillaumin.
 			Plaque du parc André-Guillaumin, Arrou.
 			Rue du professeur Guillaumin, Nouméa.
 </t>
